--- a/Thesis/files/Data High Frequency vs Low Frequency Users.xlsx
+++ b/Thesis/files/Data High Frequency vs Low Frequency Users.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17750" tabRatio="844" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17750" tabRatio="844" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
   <si>
     <t>Precision</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Number of Users</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -2989,6 +2992,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>High- vs. Low-Frequency Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4440,6 +4498,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>High- vs. Low-Frequency Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5882,6 +5995,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>High- vs. Low-Frequency Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7333,6 +7501,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>High- vs. Low-Frequency Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8784,6 +9007,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>High- vs. Low-Frequency Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10240,6 +10518,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>High- vs. Low-Frequency Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11682,6 +12015,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>High- vs. Low-Frequency Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13133,6 +13521,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>High- vs. Low-Frequency Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14584,6 +15027,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>High- vs. Low-Frequency Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -41899,7 +42397,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H10" sqref="H10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42138,6 +42636,21 @@
       <c r="F10" s="2">
         <v>341</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85947828570194629</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:K10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92769132722581382</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89221187171152239</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -43977,8 +44490,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44218,6 +44731,21 @@
       <c r="F10" s="2">
         <v>341</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.86261141395011565</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:K10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92312502968806243</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89164757236070147</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -46060,8 +46588,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46298,6 +46826,21 @@
       <c r="F10" s="2">
         <v>145</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.86784503131975643</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:K10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.89333402689152708</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88013562700938031</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -48138,7 +48681,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="H10" sqref="H10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48377,6 +48920,21 @@
       <c r="F10" s="2">
         <v>145</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.86991827751328588</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:K10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.89139771612460206</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88024139705254778</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -50217,7 +50775,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="H10" sqref="H10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50454,6 +51012,21 @@
       <c r="F10" s="2">
         <v>341</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85907654977163395</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:K10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.91443417439205399</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88572662670790825</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -52294,7 +52867,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52531,6 +53104,21 @@
       <c r="F10" s="2">
         <v>341</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85908874471384555</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:K10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92365232421381294</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89013393284819831</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -54370,8 +54958,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54610,6 +55198,21 @@
       <c r="F10" s="2">
         <v>341</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.86149502711624959</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:K10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92069933517421354</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88976887847405628</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -56450,7 +57053,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:K9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56687,6 +57290,21 @@
       <c r="F10" s="2">
         <v>341</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85891734885668403</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:K10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92793135183722786</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89215595535599646</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -58527,7 +59145,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -58764,6 +59382,21 @@
       <c r="F10" s="2">
         <v>341</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85891734885668403</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:K10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92793135183722786</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89215595535599646</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>

--- a/Thesis/files/Data High Frequency vs Low Frequency Users.xlsx
+++ b/Thesis/files/Data High Frequency vs Low Frequency Users.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17750" tabRatio="844" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25710" windowHeight="6450" tabRatio="844" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="2" r:id="rId1"/>
@@ -44491,7 +44491,7 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:K10"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46588,7 +46588,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -54958,7 +54958,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
